--- a/ValueSet-imaging-procedures-sct.xlsx
+++ b/ValueSet-imaging-procedures-sct.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>

--- a/ValueSet-imaging-procedures-sct.xlsx
+++ b/ValueSet-imaging-procedures-sct.xlsx
@@ -76,7 +76,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Imaging procedures in the context of pediatrics and Covid-19</t>
+    <t>Imaging procedures in the context of pediatrics and COVID-19</t>
   </si>
   <si>
     <t>Purpose</t>
